--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail7 Features.xlsx
@@ -5600,7 +5600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5611,29 +5611,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5654,115 +5652,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5779,72 +5767,66 @@
         <v>4.768940155269175e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4564144068007067</v>
+        <v>1.428672866400269e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.263656033137787</v>
+        <v>3.001898630867342e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.428672866400269e-06</v>
+        <v>0.03720497981722073</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.001898630867342e-06</v>
+        <v>0.08849033929923091</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03720497981722073</v>
+        <v>0.009212553048197574</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.08849033929923091</v>
+        <v>1.236094014289184</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.009212553048197574</v>
+        <v>1.333586996387222</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.18226307282931</v>
+        <v>3.532258338980874</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.333586996387222</v>
+        <v>4.408660350950177e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.532258338980874</v>
+        <v>7145312.180857788</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.408660350950177e-14</v>
+        <v>1.082349596387386e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7145312.180857788</v>
+        <v>2.250862975405187</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.082349596387386e-05</v>
+        <v>0.0001280333680370491</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.250862975405187</v>
+        <v>7.776288043225757</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001280333680370491</v>
+        <v>1.327187258616589</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.776288043225757</v>
+        <v>0.007742261720676456</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.327187258616589</v>
+        <v>3.073678932099889</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007742261720676456</v>
+        <v>0.8820565527739856</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.073678932099889</v>
+        <v>1.951027975095328</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.8820565527739856</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.951027975095328</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1866974663329052</v>
       </c>
     </row>
@@ -5859,72 +5841,66 @@
         <v>4.750883987090249e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3962801976335844</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.314706372836091</v>
+        <v>3.018640943875002e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.03308889427400339</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.018640943875002e-06</v>
+        <v>0.09241010939645697</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03308889427400339</v>
+        <v>0.00963236347788256</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09241010939645697</v>
+        <v>1.256301305097677</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.00963236347788256</v>
+        <v>1.328662528564821</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.200820014013927</v>
+        <v>3.557800027636365</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.328662528564821</v>
+        <v>3.96465764374509e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.557800027636365</v>
+        <v>7932300.028630812</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.96465764374509e-14</v>
+        <v>9.943481563011279e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7932300.028630812</v>
+        <v>2.494617450165256</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.943481563011279e-06</v>
+        <v>0.0001370782301928483</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.494617450165256</v>
+        <v>7.753204394761332</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001370782301928483</v>
+        <v>1.401317668220552</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.753204394761332</v>
+        <v>0.008240071026319403</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.401317668220552</v>
+        <v>3.054395177697063</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008240071026319403</v>
+        <v>0.886652862382217</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.054395177697063</v>
+        <v>1.960222154455121</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.886652862382217</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.960222154455121</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1739880486688571</v>
       </c>
     </row>
@@ -5939,72 +5915,66 @@
         <v>4.725315550774515e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.338944310174874</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.343776740890444</v>
+        <v>3.033362819621771e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.02907399813926484</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.033362819621771e-06</v>
+        <v>0.09542553959544621</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02907399813926484</v>
+        <v>0.009949456273495477</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.09542553959544621</v>
+        <v>1.278751973518424</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.009949456273495477</v>
+        <v>1.378755765532185</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.221565157920162</v>
+        <v>3.581023901609599</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.378755765532185</v>
+        <v>3.913400714031998e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.581023901609599</v>
+        <v>8109108.17401909</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.913400714031998e-14</v>
+        <v>1.00408154657361e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8109108.17401909</v>
+        <v>2.573359772410987</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.00408154657361e-05</v>
+        <v>0.0001544174867163199</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.573359772410987</v>
+        <v>9.631025785423668</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001544174867163199</v>
+        <v>1.231576491220641</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.631025785423668</v>
+        <v>0.01432324995507374</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.231576491220641</v>
+        <v>2.841656441631523</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01432324995507374</v>
+        <v>0.8888173682045812</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.841656441631523</v>
+        <v>1.934758846975621</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.8888173682045812</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.934758846975621</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1658585929454788</v>
       </c>
     </row>
@@ -6019,72 +5989,66 @@
         <v>4.696509532361466e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2854357462610972</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.354880354031003</v>
+        <v>3.046161321509173e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.02526755542288823</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.046161321509173e-06</v>
+        <v>0.09784086225049043</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02526755542288823</v>
+        <v>0.01020957558523324</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09784086225049043</v>
+        <v>1.306605332160984</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01020957558523324</v>
+        <v>1.324942415173473</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.24675964367895</v>
+        <v>3.643876741860441</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.324942415173473</v>
+        <v>3.653187989275724e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.643876741860441</v>
+        <v>8650155.425275743</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.653187989275724e-14</v>
+        <v>9.571815657284936e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8650155.425275743</v>
+        <v>2.733504813169179</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.571815657284936e-06</v>
+        <v>0.0001726796089069466</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.733504813169179</v>
+        <v>11.268681614006</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001726796089069466</v>
+        <v>1.123153587630621</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.268681614006</v>
+        <v>0.02192740677844238</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.123153587630621</v>
+        <v>2.591770268878471</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02192740677844238</v>
+        <v>0.8996536051600035</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.591770268878471</v>
+        <v>1.945567902300843</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.8996536051600035</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.945567902300843</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1609632692216887</v>
       </c>
     </row>
@@ -6099,72 +6063,66 @@
         <v>4.667182723866107e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2366340313354088</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.352419394884444</v>
+        <v>3.057153901207865e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.02175676083630704</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.057153901207865e-06</v>
+        <v>0.0998498554678198</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02175676083630704</v>
+        <v>0.01044204225399215</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.0998498554678198</v>
+        <v>1.370874934423554</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01044204225399215</v>
+        <v>1.460080803239567</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.304056578335472</v>
+        <v>3.194958779200885</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.460080803239567</v>
+        <v>3.632390669276898e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.194958779200885</v>
+        <v>7856847.987461026</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.632390669276898e-14</v>
+        <v>1.138215945574934e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7856847.987461026</v>
+        <v>2.242276950406111</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.138215945574934e-05</v>
+        <v>0.0001716488762117402</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.242276950406111</v>
+        <v>11.01203868004839</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001716488762117402</v>
+        <v>1.113393667755918</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.01203868004839</v>
+        <v>0.02081500026849118</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.113393667755918</v>
+        <v>2.646181000849186</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02081500026849118</v>
+        <v>0.910778280562863</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.646181000849186</v>
+        <v>1.91733106208886</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.910778280562863</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.91733106208886</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1570794164296195</v>
       </c>
     </row>
@@ -6179,72 +6137,66 @@
         <v>4.638239280126857e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1930888386019342</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.340273687472435</v>
+        <v>3.066587131568088e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01892727801046485</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.066587131568088e-06</v>
+        <v>0.1016718523746914</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01892727801046485</v>
+        <v>0.01069463185382893</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1016718523746914</v>
+        <v>1.396046194860439</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01069463185382893</v>
+        <v>1.428147417363167</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.32656805907804</v>
+        <v>3.324941088321046</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.428147417363167</v>
+        <v>3.353939006556959e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.324941088321046</v>
+        <v>8353681.323199758</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.353939006556959e-14</v>
+        <v>1.081597870424064e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8353681.323199758</v>
+        <v>2.340512516267596</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.081597870424064e-05</v>
+        <v>0.0001719152165736048</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.340512516267596</v>
+        <v>9.235869016260418</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001719152165736048</v>
+        <v>1.29698723366022</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.235869016260418</v>
+        <v>0.01466458742101298</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.29698723366022</v>
+        <v>2.779664918767553</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01466458742101298</v>
+        <v>0.9151020383090956</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.779664918767553</v>
+        <v>1.930624666789954</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9151020383090956</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.930624666789954</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1465550449966002</v>
       </c>
     </row>
@@ -6259,72 +6211,66 @@
         <v>4.608720146222096e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1546994834383844</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.320725044885559</v>
+        <v>3.074871190176197e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01704382800093485</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.074871190176197e-06</v>
+        <v>0.1033906372503668</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01704382800093485</v>
+        <v>0.0109795860171123</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1033906372503668</v>
+        <v>1.44471528163547</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0109795860171123</v>
+        <v>1.386431823246547</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.371253556129073</v>
+        <v>3.355148261782362</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.386431823246547</v>
+        <v>3.293818298169711e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.355148261782362</v>
+        <v>8145214.809026416</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.293818298169711e-14</v>
+        <v>1.147384705299802e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>8145214.809026416</v>
+        <v>2.185268080739013</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.147384705299802e-05</v>
+        <v>0.0001797165140903734</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.185268080739013</v>
+        <v>8.740842030434022</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001797165140903734</v>
+        <v>1.41040461970983</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.740842030434022</v>
+        <v>0.01373075851116738</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.41040461970983</v>
+        <v>2.735784930673199</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01373075851116738</v>
+        <v>0.9294446678498056</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.735784930673199</v>
+        <v>1.88525943140711</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9294446678498056</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.88525943140711</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1385837641553263</v>
       </c>
     </row>
@@ -6339,72 +6285,66 @@
         <v>4.576963414807248e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1210522599481795</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.294590183049142</v>
+        <v>3.082412377896653e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01585162330166554</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.082412377896653e-06</v>
+        <v>0.1049517159054797</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01585162330166554</v>
+        <v>0.01126565967436234</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1049517159054797</v>
+        <v>1.478487495679764</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01126565967436234</v>
+        <v>1.350091034223082</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.405402706253877</v>
+        <v>3.265911059581393</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.350091034223082</v>
+        <v>3.226468091536064e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.265911059581393</v>
+        <v>7899059.169071087</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.226468091536064e-14</v>
+        <v>1.190758177994738e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>7899059.169071087</v>
+        <v>2.01315914585363</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.190758177994738e-05</v>
+        <v>0.0001807584411901961</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>2.01315914585363</v>
+        <v>10.22999394636709</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001807584411901961</v>
+        <v>1.177734993589578</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.22999394636709</v>
+        <v>0.01891687268178232</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.177734993589578</v>
+        <v>2.568101912854648</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01891687268178232</v>
+        <v>0.932206126201614</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.568101912854648</v>
+        <v>1.914614413292367</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.932206126201614</v>
+        <v>6</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.914614413292367</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1404395406928126</v>
       </c>
     </row>
@@ -6419,72 +6359,66 @@
         <v>4.542394715640877e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.09177971315202958</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.262770886404156</v>
+        <v>3.089435496286337e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01496202097532275</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.089435496286337e-06</v>
+        <v>0.1063844124099235</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01496202097532275</v>
+        <v>0.01154114063259573</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1063844124099235</v>
+        <v>1.499961029216932</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01154114063259573</v>
+        <v>1.366945701238208</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.425875901341674</v>
+        <v>3.236538326558337</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.366945701238208</v>
+        <v>3.285296514237248e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.236538326558337</v>
+        <v>7589333.610390047</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.285296514237248e-14</v>
+        <v>1.248843098976158e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7589333.610390047</v>
+        <v>1.892264581970653</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.248843098976158e-05</v>
+        <v>0.0001962048209459397</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1.892264581970653</v>
+        <v>12.16988641547723</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001962048209459397</v>
+        <v>1.042713096999974</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.16988641547723</v>
+        <v>0.02905913777040602</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.042713096999974</v>
+        <v>2.280039049912803</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02905913777040602</v>
+        <v>0.9338280061752098</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.280039049912803</v>
+        <v>1.911032992917153</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9338280061752098</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.911032992917153</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1378016579540463</v>
       </c>
     </row>
@@ -6499,72 +6433,66 @@
         <v>4.505616148569816e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.06642274818727599</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.226638260980502</v>
+        <v>3.096026130016936e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01416422352228919</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.096026130016936e-06</v>
+        <v>0.1077348467210254</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01416422352228919</v>
+        <v>0.01180719146979401</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1077348467210254</v>
+        <v>1.594489669902418</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01180719146979401</v>
+        <v>1.444702918234317</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.518377712138293</v>
+        <v>3.222295166705797</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.444702918234317</v>
+        <v>3.314403978323311e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.222295166705797</v>
+        <v>6818333.729261406</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.314403978323311e-14</v>
+        <v>1.52293639479474e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>6818333.729261406</v>
+        <v>1.540855632525311</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.52293639479474e-05</v>
+        <v>0.0002159517406918702</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1.540855632525311</v>
+        <v>12.40359995252913</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002159517406918702</v>
+        <v>1.076841593672876</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.40359995252913</v>
+        <v>0.03322402236461654</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.076841593672876</v>
+        <v>2.328317749217068</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03322402236461654</v>
+        <v>0.9404016069537586</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.328317749217068</v>
+        <v>1.844413468654065</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9404016069537586</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.844413468654065</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1239596882983163</v>
       </c>
     </row>
@@ -6579,72 +6507,66 @@
         <v>4.467502077201367e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.04435907570149328</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.187434365416939</v>
+        <v>3.102236122749136e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01359291210957225</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.102236122749136e-06</v>
+        <v>0.1089569588339653</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01359291210957225</v>
+        <v>0.01205623689610326</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1089569588339653</v>
+        <v>1.639254945598118</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01205623689610326</v>
+        <v>1.35169059473585</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.562643135020653</v>
+        <v>3.57298957053017</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.35169059473585</v>
+        <v>2.695706366538883e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.57298957053017</v>
+        <v>8088183.809552239</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.695706366538883e-14</v>
+        <v>1.332017360020752e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>8088183.809552239</v>
+        <v>1.763496528164361</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.332017360020752e-05</v>
+        <v>0.0002643116641254923</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1.763496528164361</v>
+        <v>11.23750884050398</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002643116641254923</v>
+        <v>1.401877606884527</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.23750884050398</v>
+        <v>0.03337770115023648</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.401877606884527</v>
+        <v>2.334473458117369</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03337770115023648</v>
+        <v>0.9429833467797977</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.334473458117369</v>
+        <v>1.854929349498996</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9429833467797977</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.854929349498996</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.113506057788642</v>
       </c>
     </row>
@@ -6659,72 +6581,66 @@
         <v>4.427049517528846e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.02498664189876763</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.144911698824947</v>
+        <v>3.108290954613868e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01375462686984531</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.108290954613868e-06</v>
+        <v>0.1099333843283178</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01375462686984531</v>
+        <v>0.01227435476355687</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1099333843283178</v>
+        <v>1.671767255071707</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01227435476355687</v>
+        <v>1.300204535667214</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.59882333077851</v>
+        <v>4.903005423766265</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.300204535667214</v>
+        <v>1.394884482707566e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.903005423766265</v>
+        <v>15170684.84514297</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.394884482707566e-14</v>
+        <v>7.257844266684968e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>15170684.84514297</v>
+        <v>3.210322154778229</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.257844266684968e-06</v>
+        <v>0.0003162671709389185</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.210322154778229</v>
+        <v>9.948277047320399</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0003162671709389185</v>
+        <v>1.8621509196139</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.948277047320399</v>
+        <v>0.03130039775368441</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.8621509196139</v>
+        <v>2.378361676268842</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03130039775368441</v>
+        <v>0.9427067367459284</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.378361676268842</v>
+        <v>1.861231521677063</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9427067367459284</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.861231521677063</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.131642211475133</v>
       </c>
     </row>
@@ -6739,72 +6655,66 @@
         <v>4.381818111590489e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.007989372855369509</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.097728306199451</v>
+        <v>3.114522149863261e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01462922836037714</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.114522149863261e-06</v>
+        <v>0.1107413872039838</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01462922836037714</v>
+        <v>0.01247744742584283</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1107413872039838</v>
+        <v>1.782883074323238</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01247744742584283</v>
+        <v>1.428739652573213</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.728103937438535</v>
+        <v>6.527267660918565</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.428739652573213</v>
+        <v>2.627568596629449e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.527267660918565</v>
+        <v>77775197.03721066</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.627568596629449e-15</v>
+        <v>1.487738888098999e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>77775197.03721066</v>
+        <v>15.89411323762692</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.487738888098999e-06</v>
+        <v>0.0002470546970679681</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>15.89411323762692</v>
+        <v>9.02530808357584</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002470546970679681</v>
+        <v>2.052307646944555</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.02530808357584</v>
+        <v>0.02012413335739673</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.052307646944555</v>
+        <v>2.817160637811502</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02012413335739673</v>
+        <v>0.9532931295460975</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.817160637811502</v>
+        <v>1.765336081224737</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9532931295460975</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.765336081224737</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2513799628509765</v>
       </c>
     </row>
@@ -6819,72 +6729,66 @@
         <v>4.329832258908089e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.006641668937010488</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.044861317891594</v>
+        <v>3.121179530093913e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01597198049584656</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.121179530093913e-06</v>
+        <v>0.1116140203624765</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01597198049584656</v>
+        <v>0.01271255712657538</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1116140203624765</v>
+        <v>1.856154693454001</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01271255712657538</v>
+        <v>1.709028841192509</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.811713043487649</v>
+        <v>5.940691550022946</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.709028841192509</v>
+        <v>5.394774223903806e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.940691550022946</v>
+        <v>369674849.3993886</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.394774223903806e-16</v>
+        <v>3.215239640522343e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>369674849.3993886</v>
+        <v>73.7247117185169</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.215239640522343e-07</v>
+        <v>0.0001660044360824499</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>73.7247117185169</v>
+        <v>11.52612098156697</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001660044360824499</v>
+        <v>1.209473128693882</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.52612098156697</v>
+        <v>0.02205393251041702</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.209473128693882</v>
+        <v>2.924037006137971</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02205393251041702</v>
+        <v>0.960965953682843</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.924037006137971</v>
+        <v>1.567584302272649</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.960965953682843</v>
+        <v>3</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.567584302272649</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4138919776934488</v>
       </c>
     </row>
@@ -6899,72 +6803,66 @@
         <v>4.269896627347606e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.01830260044250293</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9861356582762131</v>
+        <v>3.128375929433416e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.01751493065487991</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.128375929433416e-06</v>
+        <v>0.1127185217929559</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.01751493065487991</v>
+        <v>0.01301201686820263</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1127185217929559</v>
+        <v>1.871808502423231</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01301201686820263</v>
+        <v>2.081167531019526</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.833402275756371</v>
+        <v>5.074653161594362</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.081167531019526</v>
+        <v>4.51299276752864e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.074653161594362</v>
+        <v>431836063.9449867</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.51299276752864e-16</v>
+        <v>2.764369190062509e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>431836063.9449867</v>
+        <v>84.15936598468325</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.764369190062509e-07</v>
+        <v>0.0001573881004698472</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>84.15936598468325</v>
+        <v>11.95126144960202</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001573881004698472</v>
+        <v>1.126550170158378</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.95126144960202</v>
+        <v>0.02248015950583512</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.126550170158378</v>
+        <v>2.873245132579242</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02248015950583512</v>
+        <v>0.9624543329425778</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.873245132579242</v>
+        <v>1.509875260714937</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9624543329425778</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.509875260714937</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3809438579116717</v>
       </c>
     </row>
@@ -6979,72 +6877,66 @@
         <v>4.201363848654812e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.02586273637195174</v>
+        <v>1.403606869636401e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9222078734432952</v>
+        <v>3.13613117046272e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.403606869636401e-06</v>
+        <v>0.0190612926334522</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.13613117046272e-06</v>
+        <v>0.1141370402463751</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0190612926334522</v>
+        <v>0.01339044701539241</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1141370402463751</v>
+        <v>1.842536077665469</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01339044701539241</v>
+        <v>1.655480887598454</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.785201650985155</v>
+        <v>5.484486027690443</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.655480887598454</v>
+        <v>1.189744506946896e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.484486027690443</v>
+        <v>162930931.4043391</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.189744506946896e-15</v>
+        <v>7.283490384695918e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>162930931.4043391</v>
+        <v>31.58353876248708</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.283490384695918e-07</v>
+        <v>0.0001798692769188408</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>31.58353876248708</v>
+        <v>8.790928176165178</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001798692769188408</v>
+        <v>1.716781891794952</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.790928176165178</v>
+        <v>0.01390037294134889</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.716781891794952</v>
+        <v>3.043299519395647</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01390037294134889</v>
+        <v>0.9609597457230106</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.043299519395647</v>
+        <v>1.627216418602019</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9609597457230106</v>
+        <v>1</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.627216418602019</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2396712199269417</v>
       </c>
     </row>
@@ -7421,7 +7313,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.660256484130234</v>
+        <v>1.744569624548027</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.869402466706349</v>
@@ -7510,7 +7402,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.676179808550742</v>
+        <v>1.759510242365887</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.975708241119353</v>
@@ -7599,7 +7491,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.730364345748023</v>
+        <v>1.815703891333208</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.856844850620859</v>
@@ -7688,7 +7580,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.796923164938613</v>
+        <v>1.88317267007161</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.868317616779596</v>
@@ -7777,7 +7669,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.779847648329617</v>
+        <v>1.866381693452774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.88642503930217</v>
@@ -7866,7 +7758,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.784229982249906</v>
+        <v>1.874239644182594</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.97364267946132</v>
@@ -7955,7 +7847,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.819476656039341</v>
+        <v>1.910549784416022</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.070916958802255</v>
@@ -8044,7 +7936,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.805963040597586</v>
+        <v>1.898330423900695</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.886953086393167</v>
@@ -8133,7 +8025,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.810770735489077</v>
+        <v>1.903398025250296</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.8816281875785</v>
@@ -8222,7 +8114,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.790945096054935</v>
+        <v>1.885658299364033</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.948533458072611</v>
@@ -8311,7 +8203,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.813552771334253</v>
+        <v>1.906955404922756</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.463258854413202</v>
@@ -8400,7 +8292,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.798198404613336</v>
+        <v>1.894441082257117</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.93015618843723</v>
@@ -8489,7 +8381,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.800724694606402</v>
+        <v>1.896302302687598</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.990704179105966</v>
@@ -8578,7 +8470,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.804816602666632</v>
+        <v>1.898862187673763</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.819845607180104</v>
@@ -8667,7 +8559,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.834667201465031</v>
+        <v>1.927640713873814</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.939506012415175</v>
@@ -8756,7 +8648,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.83563880324731</v>
+        <v>1.92872075497928</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.893895746990452</v>
@@ -8845,7 +8737,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.842537557995888</v>
+        <v>1.936573687456653</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.987875508765399</v>
@@ -8934,7 +8826,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.845186758346104</v>
+        <v>1.939941519112425</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.857355002397166</v>
@@ -9023,7 +8915,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.82416935345275</v>
+        <v>1.918081660814452</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.853347359005788</v>
@@ -9112,7 +9004,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.850803760892544</v>
+        <v>1.943940712628251</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.936264680974134</v>
@@ -9201,7 +9093,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.89167366142898</v>
+        <v>1.97948316983975</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.982272471789367</v>
@@ -9290,7 +9182,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.898639670457113</v>
+        <v>1.986182186763674</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.910799959122033</v>
@@ -9379,7 +9271,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.956614732560907</v>
+        <v>2.041040559602506</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.982264042326722</v>
@@ -9468,7 +9360,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.959087394195233</v>
+        <v>2.042204709441406</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.235160517124658</v>
@@ -9557,7 +9449,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.964680550772939</v>
+        <v>2.046087238747399</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.095505142874751</v>
@@ -9646,7 +9538,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.962918642984011</v>
+        <v>2.043756833621436</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.297831503373797</v>
@@ -9735,7 +9627,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.941864777522228</v>
+        <v>2.020968554248826</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.324393037945637</v>
@@ -9824,7 +9716,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.940627612518414</v>
+        <v>2.019596712729562</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.350375778096103</v>
@@ -9913,7 +9805,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.939176911987877</v>
+        <v>2.018729519977578</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.418865395298514</v>
@@ -10002,7 +9894,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.908833935930616</v>
+        <v>1.992557148330133</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.236505922927228</v>
@@ -10091,7 +9983,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.906820132877249</v>
+        <v>1.990977479703953</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.294645280924525</v>
@@ -10180,7 +10072,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.903942512423511</v>
+        <v>1.989158728309813</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.229409538293624</v>
@@ -10269,7 +10161,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.901218771005744</v>
+        <v>1.987506192947192</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.042391954371113</v>
@@ -10358,7 +10250,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.926459341229799</v>
+        <v>2.011614456395684</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.953030827897884</v>
@@ -10447,7 +10339,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.89424005544517</v>
+        <v>1.983037105417434</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.068764036116591</v>
@@ -10536,7 +10428,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.893481249887535</v>
+        <v>1.982806354092625</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.19184821224973</v>
@@ -10625,7 +10517,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.89445003373437</v>
+        <v>1.982219134638824</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.159973720887033</v>
@@ -10714,7 +10606,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.858580817199328</v>
+        <v>1.951243571838251</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.320345409864793</v>
@@ -10803,7 +10695,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.86122508082346</v>
+        <v>1.953543647891946</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.359203959785358</v>
@@ -10892,7 +10784,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.858089949339619</v>
+        <v>1.948673390085673</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.221026217693414</v>
@@ -10981,7 +10873,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.85677050513045</v>
+        <v>1.948899161613503</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.113949263720567</v>
@@ -11070,7 +10962,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.876040771534126</v>
+        <v>1.969496059344022</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.283405867628172</v>
@@ -11159,7 +11051,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.850160953764757</v>
+        <v>1.943916558688431</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.243887687598057</v>
@@ -11248,7 +11140,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.856642175058111</v>
+        <v>1.949917233442611</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.275426240505122</v>
@@ -11337,7 +11229,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.840876945866494</v>
+        <v>1.937875761260711</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.20430462210407</v>
@@ -11426,7 +11318,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.816932032590057</v>
+        <v>1.913676465268468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.050657290815834</v>
@@ -11515,7 +11407,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.841550499774486</v>
+        <v>1.938015184866888</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.02742303923604</v>
@@ -11604,7 +11496,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.842720614503957</v>
+        <v>1.939366468580558</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.958946036715541</v>
@@ -11693,7 +11585,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.824740923472823</v>
+        <v>1.915713761638575</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.73033694021089</v>
@@ -11782,7 +11674,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.843575293440998</v>
+        <v>1.936858680339818</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.922720056742153</v>
@@ -11871,7 +11763,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.813427966733234</v>
+        <v>1.911573056790297</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.976630495194271</v>
@@ -11960,7 +11852,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.793354852436159</v>
+        <v>1.88670933094114</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.14245373661224</v>
@@ -12049,7 +11941,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.812257055596063</v>
+        <v>1.91095056451</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.098454145823794</v>
@@ -12138,7 +12030,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.785336585919631</v>
+        <v>1.884972541675202</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.08613974602146</v>
@@ -12227,7 +12119,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.804584744407016</v>
+        <v>1.906607016242625</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.340228241837688</v>
@@ -12316,7 +12208,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.78569032542324</v>
+        <v>1.886925332201471</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.454036356817333</v>
@@ -12405,7 +12297,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.809802568657583</v>
+        <v>1.910468068798205</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.376825243467293</v>
@@ -12494,7 +12386,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.809412647985329</v>
+        <v>1.909878696585124</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.106681131829468</v>
@@ -12583,7 +12475,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.815621663341223</v>
+        <v>1.914778805027138</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.257743135515001</v>
@@ -12672,7 +12564,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.843429346013572</v>
+        <v>1.940858975998936</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.387517895116661</v>
@@ -12761,7 +12653,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.827483036121525</v>
+        <v>1.919833627092138</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.07585321003368</v>
@@ -13047,7 +12939,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540940875454664</v>
+        <v>1.631962547115167</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.667302674707892</v>
@@ -13136,7 +13028,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.556527847293858</v>
+        <v>1.649711502631007</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.676090551094781</v>
@@ -13225,7 +13117,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.593022907061877</v>
+        <v>1.674081784989267</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.502382241242179</v>
@@ -13314,7 +13206,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587484319436298</v>
+        <v>1.685360865239259</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.725284150919067</v>
@@ -13403,7 +13295,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.595935504315818</v>
+        <v>1.694963944624764</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.75877301762566</v>
@@ -13492,7 +13384,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.604425766064268</v>
+        <v>1.703905617764858</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.823919305719449</v>
@@ -13581,7 +13473,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.599867751712357</v>
+        <v>1.701731395070694</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.704945241263277</v>
@@ -13670,7 +13562,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636237839887967</v>
+        <v>1.741695823272966</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.610457885971813</v>
@@ -13759,7 +13651,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647972167481548</v>
+        <v>1.752756109855471</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.920104764195054</v>
@@ -13848,7 +13740,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.661553107099827</v>
+        <v>1.765147604439956</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.641119460940881</v>
@@ -13937,7 +13829,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.704835874935208</v>
+        <v>1.811186766742315</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.702964469686024</v>
@@ -14026,7 +13918,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706090478752387</v>
+        <v>1.812957717853889</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.886610503333487</v>
@@ -14115,7 +14007,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.756411210012641</v>
+        <v>1.864075801750509</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.761312364385685</v>
@@ -14204,7 +14096,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.757443247259125</v>
+        <v>1.863189736775156</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.97609202186</v>
@@ -14293,7 +14185,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.768402396623174</v>
+        <v>1.871839466112843</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.952477944171811</v>
@@ -14382,7 +14274,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.82449302341928</v>
+        <v>1.926429824879843</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.858831876688439</v>
@@ -14471,7 +14363,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.82573238250035</v>
+        <v>1.928960415293875</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.915317572955652</v>
@@ -14560,7 +14452,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.872272004565347</v>
+        <v>1.972719598920193</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.58964201713624</v>
@@ -14649,7 +14541,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.891147545019171</v>
+        <v>1.988288219703494</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.09831638738879</v>
@@ -14738,7 +14630,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.899078180889954</v>
+        <v>1.992382837174263</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.044249374263561</v>
@@ -14827,7 +14719,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.984811894930244</v>
+        <v>2.069479324176513</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.942958565920607</v>
@@ -14916,7 +14808,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.019016928981086</v>
+        <v>2.098375339337009</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.487694683548319</v>
@@ -15005,7 +14897,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.031446447046774</v>
+        <v>2.11121405094308</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.882734429585777</v>
@@ -15094,7 +14986,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.036212645337863</v>
+        <v>2.114846519055516</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.119291443564727</v>
@@ -15183,7 +15075,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.026906452951438</v>
+        <v>2.105382935181984</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.172202906240968</v>
@@ -15272,7 +15164,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.94994676488083</v>
+        <v>2.039144981183519</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.977890854567444</v>
@@ -15361,7 +15253,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.931470334914378</v>
+        <v>2.019101379051643</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.934054831613806</v>
@@ -15450,7 +15342,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.926696464236048</v>
+        <v>2.014028039201342</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.853985767779919</v>
@@ -15539,7 +15431,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.931882856101668</v>
+        <v>2.01966507660399</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.913302663198043</v>
@@ -15628,7 +15520,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.920072785449171</v>
+        <v>2.005642328309153</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.000065054381516</v>
@@ -15717,7 +15609,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.862513766995984</v>
+        <v>1.956410882095016</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.017820425438503</v>
@@ -15806,7 +15698,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.861559977928779</v>
+        <v>1.953816243335148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.938977373029779</v>
@@ -15895,7 +15787,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.858447268544435</v>
+        <v>1.950629842260785</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.952118368264805</v>
@@ -15984,7 +15876,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.80191361985572</v>
+        <v>1.895602280967045</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.952216760012779</v>
@@ -16073,7 +15965,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.793533332040889</v>
+        <v>1.889229245176421</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.977771602550985</v>
@@ -16162,7 +16054,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.784181499646493</v>
+        <v>1.881174521840194</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.882533007891462</v>
@@ -16251,7 +16143,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.769485173690493</v>
+        <v>1.85221277265151</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.893663313093417</v>
@@ -16340,7 +16232,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.728806619237979</v>
+        <v>1.82575627605076</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.82831425018696</v>
@@ -16429,7 +16321,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.726222329490842</v>
+        <v>1.823147916219257</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.809167485554694</v>
@@ -16518,7 +16410,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.73036096513933</v>
+        <v>1.828035973379138</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.896996606633962</v>
@@ -16607,7 +16499,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.722653509749011</v>
+        <v>1.822853354154057</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.830326171577457</v>
@@ -16696,7 +16588,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.732840307396239</v>
+        <v>1.833827982585169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.82675609294628</v>
@@ -16785,7 +16677,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.730551767300583</v>
+        <v>1.831786943944302</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.781200964291457</v>
@@ -16874,7 +16766,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.682811819734153</v>
+        <v>1.783035771404854</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.728226452142005</v>
@@ -16963,7 +16855,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.700892758305753</v>
+        <v>1.804222467909457</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.427399263778966</v>
@@ -17052,7 +16944,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.710663461202159</v>
+        <v>1.813286005201889</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.907788568292549</v>
@@ -17141,7 +17033,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.709398825327766</v>
+        <v>1.81267626749924</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.901367091939096</v>
@@ -17230,7 +17122,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.71341087977829</v>
+        <v>1.816578693195484</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.893485267291221</v>
@@ -17319,7 +17211,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.752151349619799</v>
+        <v>1.853944905058059</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.871217240845589</v>
@@ -17408,7 +17300,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.721985204634858</v>
+        <v>1.82069691763703</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.876926615854485</v>
@@ -17497,7 +17389,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.708569247467763</v>
+        <v>1.812118492248443</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.853272034880999</v>
@@ -17586,7 +17478,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.736647143723442</v>
+        <v>1.838985616455993</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.451564802323187</v>
@@ -17675,7 +17567,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.754214116350373</v>
+        <v>1.859081215945691</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.891731618495035</v>
@@ -17764,7 +17656,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.749046536282246</v>
+        <v>1.853102615354617</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.849842632335576</v>
@@ -17853,7 +17745,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.709427771859112</v>
+        <v>1.814784749513723</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.880120148527632</v>
@@ -17942,7 +17834,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.751786193277494</v>
+        <v>1.857454719019975</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.791179237139462</v>
@@ -18031,7 +17923,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.755296002242768</v>
+        <v>1.862170199946342</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.758238481802332</v>
@@ -18120,7 +18012,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.708675922859988</v>
+        <v>1.813575748010867</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.648726169828631</v>
@@ -18209,7 +18101,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.755676072502421</v>
+        <v>1.863226574267935</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.500879962013662</v>
@@ -18298,7 +18190,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.755753161986504</v>
+        <v>1.859256464588486</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.699014600001756</v>
@@ -18387,7 +18279,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.744158563046448</v>
+        <v>1.850249518199865</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.790972129224586</v>
@@ -18673,7 +18565,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.979250538410454</v>
+        <v>2.05224767899149</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.431199056722737</v>
@@ -18762,7 +18654,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.992469066759277</v>
+        <v>2.06462957728591</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.112787219717903</v>
@@ -18851,7 +18743,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.007536336199736</v>
+        <v>2.076836954618551</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.666887747396305</v>
@@ -18940,7 +18832,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.011241657748242</v>
+        <v>2.082019414885131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.657637506473852</v>
@@ -19029,7 +18921,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.0132854592182</v>
+        <v>2.083821826962407</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.514514513696268</v>
@@ -19118,7 +19010,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.010250450231912</v>
+        <v>2.084806372875197</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.306258245519037</v>
@@ -19207,7 +19099,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.01523253883545</v>
+        <v>2.08993866728494</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.19763783754115</v>
@@ -19296,7 +19188,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.015946728617073</v>
+        <v>2.093644158859002</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.160181639359283</v>
@@ -19385,7 +19277,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.013543384621724</v>
+        <v>2.094145554142746</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.272836913650921</v>
@@ -19474,7 +19366,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.013755160336358</v>
+        <v>2.092380455308547</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.610705538184346</v>
@@ -19563,7 +19455,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.036289243380424</v>
+        <v>2.111612366545677</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.641291167971045</v>
@@ -19652,7 +19544,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.030450559143145</v>
+        <v>2.108120957516514</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.294075528581167</v>
@@ -19741,7 +19633,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.034791879622044</v>
+        <v>2.112562720238493</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.589816269129836</v>
@@ -19830,7 +19722,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.020807412664952</v>
+        <v>2.101837203932399</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.197921314567554</v>
@@ -19919,7 +19811,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.022659842307169</v>
+        <v>2.102413437860609</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.693930492408462</v>
@@ -20008,7 +19900,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.027189235394512</v>
+        <v>2.106422799913591</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5.223103111132366</v>
@@ -20097,7 +19989,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.02831987011463</v>
+        <v>2.107067863398851</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.622112764940268</v>
@@ -20186,7 +20078,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.027342851419761</v>
+        <v>2.104690970957929</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.134004678570572</v>
@@ -20275,7 +20167,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.026360704876339</v>
+        <v>2.104697291357514</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.718155259603178</v>
@@ -20364,7 +20256,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.031541799129129</v>
+        <v>2.108904368446329</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.548569574471773</v>
@@ -20453,7 +20345,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.04314371043169</v>
+        <v>2.114284385809887</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.082420184258265</v>
@@ -20542,7 +20434,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.045095777754236</v>
+        <v>2.118597166370071</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.613042314310212</v>
@@ -20631,7 +20523,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.05537359710177</v>
+        <v>2.124826291165078</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>5.301195838975796</v>
@@ -20720,7 +20612,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.050190989773614</v>
+        <v>2.122639783306824</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.920766181568783</v>
@@ -20809,7 +20701,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.052869448522848</v>
+        <v>2.128356929692171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.024675986198838</v>
@@ -20898,7 +20790,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.05227462049439</v>
+        <v>2.126815567829154</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.173078358177385</v>
@@ -20987,7 +20879,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.047749554596911</v>
+        <v>2.123728164955299</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.383679192166334</v>
@@ -21076,7 +20968,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.046183464923566</v>
+        <v>2.122054883212482</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.273188084621641</v>
@@ -21165,7 +21057,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.054677014031411</v>
+        <v>2.125076951227479</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.710348768014896</v>
@@ -21254,7 +21146,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.053265785778186</v>
+        <v>2.126023831753121</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.74222184293072</v>
@@ -21343,7 +21235,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.048499779685772</v>
+        <v>2.123148125090577</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.805530842418047</v>
@@ -21432,7 +21324,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.051593996118376</v>
+        <v>2.12504076469564</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.64116204614727</v>
@@ -21521,7 +21413,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.055835802041388</v>
+        <v>2.129007117440918</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.198128187514191</v>
@@ -21610,7 +21502,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.051264817254134</v>
+        <v>2.126090151125082</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.185226173599084</v>
@@ -21699,7 +21591,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.029633293358193</v>
+        <v>2.11021978925071</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.065118124514393</v>
@@ -21788,7 +21680,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.030393781454046</v>
+        <v>2.111674821959755</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.150010795636116</v>
@@ -21877,7 +21769,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.026840676122299</v>
+        <v>2.106722725783633</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.872167653875081</v>
@@ -21966,7 +21858,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.021135603985557</v>
+        <v>2.103957508584582</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.559021394158366</v>
@@ -22055,7 +21947,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.023653472182448</v>
+        <v>2.104433639413289</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.674719142945074</v>
@@ -22144,7 +22036,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.027542793085158</v>
+        <v>2.105443728812086</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.04701110326962</v>
@@ -22233,7 +22125,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.02395591879459</v>
+        <v>2.104564238168456</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.994849272154053</v>
@@ -22322,7 +22214,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.026062493358087</v>
+        <v>2.10567403914161</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.038584076317429</v>
@@ -22411,7 +22303,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.02668681740703</v>
+        <v>2.107189151721617</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.550111413073796</v>
@@ -22500,7 +22392,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.031519822887979</v>
+        <v>2.113065451989629</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.868751648697594</v>
@@ -22589,7 +22481,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.028288230245287</v>
+        <v>2.109644218530063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.829333337726429</v>
@@ -22678,7 +22570,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.028848770993307</v>
+        <v>2.108501994101294</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.757578219167627</v>
@@ -22767,7 +22659,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.029622754528331</v>
+        <v>2.111098985534732</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.624379523102952</v>
@@ -22856,7 +22748,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.02952283424149</v>
+        <v>2.111354142424695</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.667072880030918</v>
@@ -22945,7 +22837,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.034287267865749</v>
+        <v>2.110428283206201</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.579035115562383</v>
@@ -23034,7 +22926,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.051573707588903</v>
+        <v>2.125128526824649</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.343115206141382</v>
@@ -23123,7 +23015,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.04744160347332</v>
+        <v>2.122113984541599</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.724362827318259</v>
@@ -23212,7 +23104,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.052138120161385</v>
+        <v>2.124689239210328</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5.760325862416168</v>
@@ -23301,7 +23193,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.055937012323198</v>
+        <v>2.128077058590602</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>5.878340796244098</v>
@@ -23390,7 +23282,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.053716382364799</v>
+        <v>2.127506710857213</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5.708133854861498</v>
@@ -23479,7 +23371,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.046898869321419</v>
+        <v>2.12438887999993</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>6.137195176199449</v>
@@ -23568,7 +23460,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.055329181345388</v>
+        <v>2.129209123152859</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>6.076158368122545</v>
@@ -23657,7 +23549,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.059298634069637</v>
+        <v>2.130756133543808</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>5.926734968533157</v>
@@ -23746,7 +23638,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.059212203080283</v>
+        <v>2.129471871473345</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>6.862937818684299</v>
@@ -23835,7 +23727,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.065681975116419</v>
+        <v>2.1343506494039</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.337114312768792</v>
@@ -23924,7 +23816,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.072086180814555</v>
+        <v>2.138048556719802</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.417141964898868</v>
@@ -24013,7 +23905,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.068008946261372</v>
+        <v>2.136677497434812</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.950456318436997</v>
@@ -24299,7 +24191,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.990686989585693</v>
+        <v>2.054900091625824</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.811987939469011</v>
@@ -24388,7 +24280,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.021304072930752</v>
+        <v>2.086267691044123</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.310614808152083</v>
@@ -24477,7 +24369,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.010550980212834</v>
+        <v>2.078871693954355</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.208655410312429</v>
@@ -24566,7 +24458,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.013167934624889</v>
+        <v>2.084831937446422</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.39741856189032</v>
@@ -24655,7 +24547,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.026759600306234</v>
+        <v>2.096412058871884</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.378697465245768</v>
@@ -24744,7 +24636,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.034630879980909</v>
+        <v>2.105930039853995</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.568630843191245</v>
@@ -24833,7 +24725,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.041620968209824</v>
+        <v>2.112365617415595</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.425229704709478</v>
@@ -24922,7 +24814,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.047170549360948</v>
+        <v>2.113593407083374</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.246230781759043</v>
@@ -25011,7 +24903,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.045019347189184</v>
+        <v>2.11154890461225</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.817933715168455</v>
@@ -25100,7 +24992,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.058444565430285</v>
+        <v>2.120183832471668</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.876177444745959</v>
@@ -25189,7 +25081,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.072105760344802</v>
+        <v>2.131131034810984</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.360959719999054</v>
@@ -25278,7 +25170,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.082668165865543</v>
+        <v>2.138384650935211</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.737533616824916</v>
@@ -25367,7 +25259,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.091661088729114</v>
+        <v>2.143067889688597</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.987964719375126</v>
@@ -25456,7 +25348,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.095333652224978</v>
+        <v>2.145403859927481</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.544241870369819</v>
@@ -25545,7 +25437,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.094707780066551</v>
+        <v>2.145700213400455</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.066881986013722</v>
@@ -25634,7 +25526,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.099226317618336</v>
+        <v>2.148062301289312</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.322289486867427</v>
@@ -25723,7 +25615,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.100941303781921</v>
+        <v>2.14836834809997</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.232312411367024</v>
@@ -25812,7 +25704,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.125856756516786</v>
+        <v>2.165239146190738</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.18894044171812</v>
@@ -25901,7 +25793,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.123719373860932</v>
+        <v>2.162380490855261</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.819851000903525</v>
@@ -25990,7 +25882,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.123383466960379</v>
+        <v>2.16197028425983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.541306243019982</v>
@@ -26079,7 +25971,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.135690149339337</v>
+        <v>2.169227751511437</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.866204087607612</v>
@@ -26168,7 +26060,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.134490144831521</v>
+        <v>2.171980536970421</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.827353166500299</v>
@@ -26257,7 +26149,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.138133809288181</v>
+        <v>2.176089553543545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.440180488050923</v>
@@ -26346,7 +26238,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.140889152753025</v>
+        <v>2.179583207099643</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.911430587467419</v>
@@ -26435,7 +26327,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.141188403490113</v>
+        <v>2.182970683104586</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.707635408462452</v>
@@ -26524,7 +26416,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.129704858747515</v>
+        <v>2.176048113813367</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>6.636888337337684</v>
@@ -26613,7 +26505,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.130528520993363</v>
+        <v>2.175779397676606</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.348568372445493</v>
@@ -26702,7 +26594,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.128540584492247</v>
+        <v>2.174778043090881</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.669179080171594</v>
@@ -26791,7 +26683,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.126720869096541</v>
+        <v>2.174530740183283</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.117767827918908</v>
@@ -26880,7 +26772,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.124931027751786</v>
+        <v>2.173220902307213</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.870561703443251</v>
@@ -26969,7 +26861,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.118844845876157</v>
+        <v>2.168975607418658</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.499878061926143</v>
@@ -27058,7 +26950,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.102019855831213</v>
+        <v>2.157096914161432</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.717671940567675</v>
@@ -27147,7 +27039,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.093409167424639</v>
+        <v>2.15088116897978</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.508720493992447</v>
@@ -27236,7 +27128,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.09375279509692</v>
+        <v>2.151935371928005</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.2404941813961</v>
@@ -27325,7 +27217,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.087864186714599</v>
+        <v>2.14953571504348</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.203382949057288</v>
@@ -27414,7 +27306,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.087598086149547</v>
+        <v>2.150301672711493</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.152422178798958</v>
@@ -27503,7 +27395,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.088401293507968</v>
+        <v>2.149961635562356</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.660629642927607</v>
@@ -27592,7 +27484,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.089307016190217</v>
+        <v>2.151640008800893</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.92840598777595</v>
@@ -27681,7 +27573,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.090011549252961</v>
+        <v>2.150119179029694</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.350838298179266</v>
@@ -27770,7 +27662,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.090071694021358</v>
+        <v>2.14917323866141</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.209777129096389</v>
@@ -27859,7 +27751,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.090940763815871</v>
+        <v>2.152287835529702</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.662028492851806</v>
@@ -27948,7 +27840,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.087949896995855</v>
+        <v>2.150158424775498</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.633710873954969</v>
@@ -28037,7 +27929,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.083572831284351</v>
+        <v>2.147531414614453</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.437062793095484</v>
@@ -28126,7 +28018,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.077179172955502</v>
+        <v>2.144532182019869</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.423285178742668</v>
@@ -28215,7 +28107,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.082044097964079</v>
+        <v>2.148594748316808</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.773995399951026</v>
@@ -28304,7 +28196,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.076026389873723</v>
+        <v>2.145524027006121</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.399065620731784</v>
@@ -28393,7 +28285,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.092471434643874</v>
+        <v>2.156864704904573</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.38712505396051</v>
@@ -28482,7 +28374,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.098376019812068</v>
+        <v>2.160962847166517</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.964210530157277</v>
@@ -28571,7 +28463,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.101967415585776</v>
+        <v>2.162905234818463</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.585237129060572</v>
@@ -28660,7 +28552,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.104626820463213</v>
+        <v>2.165013982320775</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.046185001958622</v>
@@ -28749,7 +28641,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.105983569061382</v>
+        <v>2.165373211795626</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.94990941597256</v>
@@ -28838,7 +28730,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.107638322608196</v>
+        <v>2.166329909415209</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>7.22152610772554</v>
@@ -28927,7 +28819,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.10943370362484</v>
+        <v>2.166360508115241</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>6.483062551089065</v>
@@ -29016,7 +28908,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.114218867880855</v>
+        <v>2.17092035645732</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5.583014169145129</v>
@@ -29105,7 +28997,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.113132394947708</v>
+        <v>2.170232766859831</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>6.349456040378935</v>
@@ -29194,7 +29086,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.121911610903861</v>
+        <v>2.175472624096864</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>6.275074689768543</v>
@@ -29283,7 +29175,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.123250201498825</v>
+        <v>2.17519689061985</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>5.515930417171249</v>
@@ -29372,7 +29264,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.124185631609855</v>
+        <v>2.17489937593437</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>5.391374699558519</v>
@@ -29461,7 +29353,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.123081824776638</v>
+        <v>2.172171553977072</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.307197737544298</v>
@@ -29550,7 +29442,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.123943772760855</v>
+        <v>2.17181404060213</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>6.402295312909125</v>
@@ -29639,7 +29531,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.130350062546206</v>
+        <v>2.174376336293438</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.061723460552754</v>
@@ -29925,7 +29817,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.908580620339162</v>
+        <v>1.994667474645145</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.463818833029375</v>
@@ -30014,7 +29906,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.943099215408239</v>
+        <v>2.027464557070057</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.572600205860479</v>
@@ -30103,7 +29995,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.973894161659982</v>
+        <v>2.056392195655013</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.652199342951376</v>
@@ -30192,7 +30084,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.991149189967252</v>
+        <v>2.074537619977797</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.842577207665524</v>
@@ -30281,7 +30173,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.991271796108108</v>
+        <v>2.076718021899174</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.593686435621104</v>
@@ -30370,7 +30262,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.995014045470071</v>
+        <v>2.080321051321577</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.81570359652044</v>
@@ -30459,7 +30351,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.000410606978154</v>
+        <v>2.086363193098103</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.709550489970239</v>
@@ -30548,7 +30440,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.010972863960128</v>
+        <v>2.094508524123274</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.686416212344112</v>
@@ -30637,7 +30529,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.014367429847796</v>
+        <v>2.09681386641705</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.098224427480021</v>
@@ -30726,7 +30618,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.013837200831034</v>
+        <v>2.094769308949068</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.045153709428642</v>
@@ -30815,7 +30707,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.018728040319865</v>
+        <v>2.099930653034248</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.235557627395263</v>
@@ -30904,7 +30796,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.019737321282508</v>
+        <v>2.100529917212349</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.937055036386776</v>
@@ -30993,7 +30885,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.022641184820415</v>
+        <v>2.101399987857127</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.257076578117463</v>
@@ -31082,7 +30974,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.018661479870985</v>
+        <v>2.096925551563814</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.203021610451382</v>
@@ -31171,7 +31063,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.022121756153989</v>
+        <v>2.098428748749366</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.126830675368429</v>
@@ -31260,7 +31152,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.99661302562626</v>
+        <v>2.081259567917257</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.122989839363304</v>
@@ -31349,7 +31241,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.019889277855522</v>
+        <v>2.098454690311101</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.943185745594992</v>
@@ -31438,7 +31330,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.022062302214973</v>
+        <v>2.099813219423978</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.010093331001253</v>
@@ -31527,7 +31419,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.020683193386535</v>
+        <v>2.098688138621429</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.981192251728353</v>
@@ -31616,7 +31508,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.023744592168138</v>
+        <v>2.101226725844206</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.295646988878183</v>
@@ -31705,7 +31597,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.043873176333613</v>
+        <v>2.115579956774162</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.127349807025431</v>
@@ -31794,7 +31686,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.045433345813644</v>
+        <v>2.116715531642484</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.805704759980277</v>
@@ -31883,7 +31775,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.045937952208821</v>
+        <v>2.117867498053509</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.840288491519583</v>
@@ -31972,7 +31864,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.013223294834432</v>
+        <v>2.090718799039677</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.467961788578843</v>
@@ -32061,7 +31953,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.015665046907275</v>
+        <v>2.092529859811641</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.261059778965688</v>
@@ -32150,7 +32042,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.015990706288672</v>
+        <v>2.091783969413555</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.578907116245263</v>
@@ -32239,7 +32131,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.012193756432863</v>
+        <v>2.088391873040589</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.780781176317015</v>
@@ -32328,7 +32220,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.008585828670858</v>
+        <v>2.085537303313244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.826404762390172</v>
@@ -32417,7 +32309,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.007032272536312</v>
+        <v>2.08641702712533</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.992928135041716</v>
@@ -32506,7 +32398,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.003539690645102</v>
+        <v>2.083077191213088</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.671184051966839</v>
@@ -32595,7 +32487,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.026425048302888</v>
+        <v>2.100197030525664</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.900826578283144</v>
@@ -32684,7 +32576,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.018349789949997</v>
+        <v>2.093001712554218</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.704363743384194</v>
@@ -32773,7 +32665,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.005633159836585</v>
+        <v>2.083529850748236</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.543510291650153</v>
@@ -32862,7 +32754,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.011328512373595</v>
+        <v>2.086396341447886</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.396828341048044</v>
@@ -32951,7 +32843,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.972167852919059</v>
+        <v>2.055479518233662</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.384909198553161</v>
@@ -33040,7 +32932,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.967160415831654</v>
+        <v>2.051912204775994</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.407681272039301</v>
@@ -33129,7 +33021,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.958664106771582</v>
+        <v>2.04537268881355</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.732666034777423</v>
@@ -33218,7 +33110,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.956420650176118</v>
+        <v>2.045554454695476</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.571790917845232</v>
@@ -33307,7 +33199,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.983720888801342</v>
+        <v>2.069009764164838</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.661258333463604</v>
@@ -33396,7 +33288,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.988037790805353</v>
+        <v>2.07279540003996</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.66357874254832</v>
@@ -33485,7 +33377,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.989848880908434</v>
+        <v>2.0756372984271</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.754231299452756</v>
@@ -33574,7 +33466,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.97622566651229</v>
+        <v>2.06570008228453</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.676056840806006</v>
@@ -33663,7 +33555,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.97722490446223</v>
+        <v>2.065920168637518</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.602274176338605</v>
@@ -33752,7 +33644,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.978613820757714</v>
+        <v>2.066119548312935</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.628258498051018</v>
@@ -33841,7 +33733,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.980632558202724</v>
+        <v>2.06993911011788</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.680414261407259</v>
@@ -33930,7 +33822,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.976259618684236</v>
+        <v>2.066656697354181</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.588251181693186</v>
@@ -34019,7 +33911,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.979875429862034</v>
+        <v>2.069783660125353</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.52036476261731</v>
@@ -34108,7 +34000,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.992211736998047</v>
+        <v>2.078144149295293</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.477041969814122</v>
@@ -34197,7 +34089,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.984329183898601</v>
+        <v>2.072777730130211</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.401390180825292</v>
@@ -34286,7 +34178,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.015043584089155</v>
+        <v>2.096680505420418</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.993553802039583</v>
@@ -34375,7 +34267,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.01843709727591</v>
+        <v>2.099095468080202</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.614272949992911</v>
@@ -34464,7 +34356,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.002644523589405</v>
+        <v>2.087591636935981</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.165330801787493</v>
@@ -34553,7 +34445,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.001213308535615</v>
+        <v>2.08785012502651</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.496512308017068</v>
@@ -34642,7 +34534,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.995768100788034</v>
+        <v>2.084561783499403</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.081356524003795</v>
@@ -34731,7 +34623,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.994885545559457</v>
+        <v>2.082738556059689</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.484241697689493</v>
@@ -34820,7 +34712,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.96483804983599</v>
+        <v>2.057330950023352</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.041835718359268</v>
@@ -34909,7 +34801,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.986361595715318</v>
+        <v>2.074378618358342</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.027060534900239</v>
@@ -34998,7 +34890,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.976700135695794</v>
+        <v>2.064916693979238</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.757590642197423</v>
@@ -35087,7 +34979,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.981189584529959</v>
+        <v>2.067584649463769</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.139418671811839</v>
@@ -35176,7 +35068,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.986863347071373</v>
+        <v>2.071183693751344</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.130244192824871</v>
@@ -35265,7 +35157,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.983313656942496</v>
+        <v>2.068982796374653</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.284366119348121</v>
@@ -35551,7 +35443,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.719087833422512</v>
+        <v>1.803355402957219</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.100216555990372</v>
@@ -35640,7 +35532,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.734188361680894</v>
+        <v>1.819612871123805</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.250436385611718</v>
@@ -35729,7 +35621,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.785661194798468</v>
+        <v>1.870217166618121</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.121645966207137</v>
@@ -35818,7 +35710,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.844031332018357</v>
+        <v>1.927849095476355</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.09996176303593</v>
@@ -35907,7 +35799,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.829015858546693</v>
+        <v>1.91529452041181</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.024748218590005</v>
@@ -35996,7 +35888,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.830953557360877</v>
+        <v>1.920470939393772</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.184365018862473</v>
@@ -36085,7 +35977,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.864698423441594</v>
+        <v>1.952942415572065</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.177065608146026</v>
@@ -36174,7 +36066,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.900897808758423</v>
+        <v>1.985801083121409</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.129299680065898</v>
@@ -36263,7 +36155,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.903578099808985</v>
+        <v>1.987955639611517</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.222693137206042</v>
@@ -36352,7 +36244,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.882663789042364</v>
+        <v>1.969378542860499</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.178519570374403</v>
@@ -36441,7 +36333,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.906640544081557</v>
+        <v>1.992994484696511</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.02839760707073</v>
@@ -36530,7 +36422,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.889571932658638</v>
+        <v>1.979370823179172</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.265551153776611</v>
@@ -36619,7 +36511,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.892192213716144</v>
+        <v>1.981000387772836</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.276280179554598</v>
@@ -36708,7 +36600,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.894012439919906</v>
+        <v>1.981641832688296</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.994835626554466</v>
@@ -36797,7 +36689,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.921209832589001</v>
+        <v>2.005808952078508</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.388769887964597</v>
@@ -36886,7 +36778,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.922676271911369</v>
+        <v>2.007264974483739</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.454673765888931</v>
@@ -36975,7 +36867,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.92658115600017</v>
+        <v>2.009703637545815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.232415678857688</v>
@@ -37064,7 +36956,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.930713403467571</v>
+        <v>2.014192658356683</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.597809263670677</v>
@@ -37153,7 +37045,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.905002516830762</v>
+        <v>1.990142233520692</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.137876663920646</v>
@@ -37242,7 +37134,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.929473986486487</v>
+        <v>2.013076902218299</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.241479335805941</v>
@@ -37331,7 +37223,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.972741828808616</v>
+        <v>2.048365723408853</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.597253097967726</v>
@@ -37420,7 +37312,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.974017371021238</v>
+        <v>2.051423754552973</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.40696198403166</v>
@@ -37509,7 +37401,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.979164598937721</v>
+        <v>2.057116654939345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.359079692979744</v>
@@ -37598,7 +37490,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.979703792145887</v>
+        <v>2.057313910052417</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.610305306420386</v>
@@ -37687,7 +37579,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.983049091253871</v>
+        <v>2.060960799019662</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.263623793124459</v>
@@ -37776,7 +37668,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.981788743255446</v>
+        <v>2.057412559442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.58130495148341</v>
@@ -37865,7 +37757,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.969841582437277</v>
+        <v>2.04442488171251</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.745017347350752</v>
@@ -37954,7 +37846,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.968227155340059</v>
+        <v>2.041846139256253</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.688906958778002</v>
@@ -38043,7 +37935,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.96607027609346</v>
+        <v>2.040014469559531</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.895857245031892</v>
@@ -38132,7 +38024,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.936385064191289</v>
+        <v>2.015710892277672</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.636326073142977</v>
@@ -38221,7 +38113,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.934991671190136</v>
+        <v>2.014035175501592</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.75582189926627</v>
@@ -38310,7 +38202,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.938773671172326</v>
+        <v>2.019153315017489</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.692167198552345</v>
@@ -38399,7 +38291,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.936981512712736</v>
+        <v>2.017189361963218</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.308627773035409</v>
@@ -38488,7 +38380,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.960391250296563</v>
+        <v>2.03873993613198</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.181624060224275</v>
@@ -38577,7 +38469,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.932052285270114</v>
+        <v>2.014502054323456</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.26518083334301</v>
@@ -38666,7 +38558,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.931385088936306</v>
+        <v>2.014346852347932</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.319572803470478</v>
@@ -38755,7 +38647,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.931443931970947</v>
+        <v>2.014437278537058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.335833869665451</v>
@@ -38844,7 +38736,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.900107968570579</v>
+        <v>1.988528793558231</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.512754709158313</v>
@@ -38933,7 +38825,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.904073146808216</v>
+        <v>1.991702639705072</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.603417749102875</v>
@@ -39022,7 +38914,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.907409952816629</v>
+        <v>1.991555756773729</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.662070739020283</v>
@@ -39111,7 +39003,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.908475388382541</v>
+        <v>1.993643330879059</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.530094521148818</v>
@@ -39200,7 +39092,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.918431269428798</v>
+        <v>2.004489774790873</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.56052185984485</v>
@@ -39289,7 +39181,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.89816800498787</v>
+        <v>1.98609958760227</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.702350289068252</v>
@@ -39378,7 +39270,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.907373395800893</v>
+        <v>1.993449103055547</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.319103746742706</v>
@@ -39467,7 +39359,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.898150754399711</v>
+        <v>1.988551831776569</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.491537229524618</v>
@@ -39556,7 +39448,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.87681602754666</v>
+        <v>1.967403265259375</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.283739855631415</v>
@@ -39645,7 +39537,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.896968968271317</v>
+        <v>1.987660844328555</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.291612062648979</v>
@@ -39734,7 +39626,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.899007233816807</v>
+        <v>1.989972311600053</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.214696575612482</v>
@@ -39823,7 +39715,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.88580211151989</v>
+        <v>1.972230487761482</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.82050519065149</v>
@@ -39912,7 +39804,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.905776505347641</v>
+        <v>1.992433949872727</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.105366027832586</v>
@@ -40001,7 +39893,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.877703035112605</v>
+        <v>1.967325253143691</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.161194736820491</v>
@@ -40090,7 +39982,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.86065793652094</v>
+        <v>1.94721396934654</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.42415217086801</v>
@@ -40179,7 +40071,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.881334946831312</v>
+        <v>1.970673086063899</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.43181740852914</v>
@@ -40268,7 +40160,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.85519658468533</v>
+        <v>1.947729600326256</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.32771309091468</v>
@@ -40357,7 +40249,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.870047207537886</v>
+        <v>1.964835631782097</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.469860073633252</v>
@@ -40446,7 +40338,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.847234572522189</v>
+        <v>1.943795860748001</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.591124845389774</v>
@@ -40535,7 +40427,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.872397220825864</v>
+        <v>1.966993473533193</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.828495102183871</v>
@@ -40624,7 +40516,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.867497143211929</v>
+        <v>1.959909959012869</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.483307472565976</v>
@@ -40713,7 +40605,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.872068401605544</v>
+        <v>1.962534325100433</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.550961034687929</v>
@@ -40802,7 +40694,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.893905079173027</v>
+        <v>1.981879702236176</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.677622288237826</v>
@@ -40891,7 +40783,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.877798488127517</v>
+        <v>1.965028371546616</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.354488393880014</v>
